--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject18.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject18.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.73427049495400021</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -203,19 +203,19 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0</v>
+        <v>0.50862923070037025</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
       </c>
       <c r="AB1" s="0">
-        <v>0</v>
+        <v>0.97358053060800998</v>
       </c>
       <c r="AC1" s="0">
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.98469305646169958</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.76494042135471418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.74517412566490038</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.72870219841411332</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.57698843837307001</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.609960276391458</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.92390923191374907</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.63084609122173374</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>0.94396367845617235</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.74716357614557327</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.92425409223929522</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>0</v>
+        <v>0.53931529036411652</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0</v>
+        <v>0.91098352316657905</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.56187588321362791</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.53538647999659017</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.78239221632703582</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.51794845996844274</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.93282693817278539</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.68131754260917243</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.79921329165262267</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.60184625011851689</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.59413534269142709</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.72671676647813288</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.91252567426253206</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.73217341061473529</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.83582507104614245</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.97487634826343084</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.87094597167919496</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.84936904706899274</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.75631677757545368</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.98188132259466476</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.94799492440595556</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.64280851612891943</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.76025383630080479</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.56290871652337005</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.80402369932856899</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.65670297376128672</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.94566785698247202</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.71891953368444139</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>0.57227438415271237</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.77578211554282483</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.51457649315515119</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.8688105738038423</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.7067725571050083</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.58732532014825378</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.53553434498353125</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.92807088170427365</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.84523027256904326</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.82692955199694174</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.51837204394436531</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="0">
-        <v>0</v>
+        <v>0.8264292644891269</v>
       </c>
       <c r="AS14" s="0">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="0">
-        <v>0</v>
+        <v>0.92603853951418924</v>
       </c>
       <c r="BP14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.53105935609040567</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.93687401715473295</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.67227214539205726</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.67240179987206417</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>0.71898207233683165</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.89806033270371877</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.69270593488628207</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.78823017274576601</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.58404805013715833</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AY17" s="0">
-        <v>0</v>
+        <v>0.61240814314171788</v>
       </c>
       <c r="AZ17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.95150161638224418</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.99384327106431369</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.5832898909187767</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.76298049601768714</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3765,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.71270844549094248</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.8595457389399801</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.55958189907054456</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.69002542564971014</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="BH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="0">
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>0</v>
+        <v>0.62180525285316524</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.88347395092729264</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.95539301603857463</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.69369858368416459</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.65352212220782668</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0</v>
+        <v>0.96912307430330713</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.50871961827156875</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.5387659422073473</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.51128693407842141</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.98550151236661765</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.65988182486516056</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.52343940509220843</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.62135057918533099</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.55751483983435857</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.76595634417371872</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.89374318835386224</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.68192754763818386</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0</v>
+        <v>0.77829050708493719</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.88627742863540782</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.59137931374376129</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.95680168688033596</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.91053410419586778</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4977,13 +4977,13 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0</v>
+        <v>0.89837551467614318</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.97730900351194838</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.86714673150906763</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0</v>
+        <v>0.78466810551550581</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>0.79160062094723305</v>
       </c>
       <c r="B26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.80030716129516888</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.66102227828395732</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.90180320552274007</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0</v>
+        <v>0.63376664051112153</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.72481470006526005</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.89971256572979241</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.54164094062457924</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>0.71875354176679718</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.59680441519287331</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0</v>
+        <v>0.83640828589163496</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>0</v>
+        <v>0.87850891155666755</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0</v>
+        <v>0.67741179069569046</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.96443877478645534</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.81255792454177067</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.52754452158590626</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.53007817313063854</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.79137349895058395</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.68692741503324439</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.94219154141480765</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.67508417272798971</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.84149216230192347</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.99745486318955168</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.53778072598898041</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.75482713986391659</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.65820840508176581</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.65136745057137513</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.69005451420759956</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.65536956865120866</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.93750851071182795</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.63677442954276287</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0</v>
+        <v>0.75899752259478281</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.92874719741339984</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.60533518442812695</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.69650093636509625</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.78396321785564327</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.61785391721022664</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.85578402072154147</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.54165256160904751</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.77194640960916061</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.99334746584120248</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.75396857715357368</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7294,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.7804296522821188</v>
       </c>
       <c r="BD35" s="0">
-        <v>0</v>
+        <v>0.79490331411098225</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>0</v>
+        <v>0.83216822657632505</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.77500610483881127</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.67001802807317157</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.70287738644150877</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.60851943396744335</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.50659289358768489</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.92042311054179171</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="0">
-        <v>0</v>
+        <v>0.93533114568726261</v>
       </c>
       <c r="BB37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.99660686793270004</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.54607107558921797</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.87730412158299187</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.93908838142989293</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.63449561341506222</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.79926066264379991</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>0</v>
+        <v>0.7350825781859941</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>0</v>
+        <v>0.74382372923056761</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0</v>
+        <v>0.57904357271017393</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.64920071690811421</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.85795240272433204</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.82423825245610427</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0</v>
+        <v>0.9203811415235037</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0</v>
+        <v>0.58425382917278812</v>
       </c>
     </row>
     <row r="41">
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.80930887408196006</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.79014079556403161</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.71637236129732473</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>0</v>
+        <v>0.92035654689419188</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8548,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>0</v>
+        <v>0.59422985964284747</v>
       </c>
       <c r="BJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>0</v>
+        <v>0.57255281313751039</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.62372594776694767</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.84459447355042105</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.88791917267465081</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.9532599638059096</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.87136196409275457</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.50644350329279475</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.88233850034164862</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.93059752137909468</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9019,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>0</v>
+        <v>0.55077764398455409</v>
       </c>
       <c r="O44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.7883651007846304</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.83641023435307638</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.88610129112793912</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.92228649470742063</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.94201335176855261</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.85855878371971661</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.85777643651276403</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="BI45" s="0">
-        <v>0</v>
+        <v>0.51881730299216822</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>0</v>
+        <v>0.85176019577501239</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.88740913474306438</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.99332466812749454</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>0</v>
+        <v>0.5981325588961276</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.63769158435777729</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.77567595148481172</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.53974217017607051</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.66461727046497598</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.56428560672923023</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0</v>
+        <v>0.86755982046729796</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.87340439630317346</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.91142260697652144</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10336,10 +10336,10 @@
         <v>0</v>
       </c>
       <c r="AM50" s="0">
-        <v>0</v>
+        <v>0.80610484700144158</v>
       </c>
       <c r="AN50" s="0">
-        <v>0</v>
+        <v>0.85052912849834073</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.66611136672238414</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10470,13 +10470,13 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0</v>
+        <v>0.82335502307592068</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.86215381309808259</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.52758912357031784</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0</v>
+        <v>0.95801600518019825</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.69084962362201208</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.5234661097609199</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.9122543244043736</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="0">
-        <v>0</v>
+        <v>0.5893955990793629</v>
       </c>
       <c r="AL53" s="0">
         <v>0</v>
@@ -10990,22 +10990,22 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.63724802155530647</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.5575574843924469</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.60339548737108495</v>
       </c>
       <c r="BD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.82684292201300602</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.71042236050172014</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.91477844054020774</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.53407344549302005</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.86603053967031574</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.73628807520570128</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.6830214135710686</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.89979532315643196</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>0</v>
+        <v>0.70335141210469443</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0</v>
+        <v>0.74721651277647294</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11614,22 +11614,22 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.73157400780060522</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.89473376813224692</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.78408790701891884</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>0</v>
+        <v>0.9031587534093809</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.67076904906460233</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.60328706549047184</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.53461570318069751</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.68524592568726361</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.54936088521056425</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.93981412743043113</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.59679431800341742</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.7965663843501718</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.56947336155381212</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>0.93514329700205234</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="0">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.7555615084326468</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.69011446084763073</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.6771425721953106</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>0</v>
+        <v>0.82652363276552221</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>0</v>
+        <v>0.71007278660716922</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12662,22 +12662,22 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.93322542721061241</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.59944180725585827</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.60506430586257998</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>0</v>
+        <v>0.83797133269064172</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.74545247893996902</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.79328688385711033</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.87936274469525877</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.58698324072257768</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.6396964632604365</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.62122487049200492</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.70897850294344344</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13286,22 +13286,22 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0</v>
+        <v>0.61356233673244265</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.69249601109449221</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.55311578982325815</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.77622809648721258</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>0</v>
+        <v>0.78250470388061499</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.8869152518407869</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.80115490405244572</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.5271272576349616</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.87156483942753504</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.61263808743835846</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.71504083559805698</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.83307256090806103</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>0</v>
+        <v>0.64989448037632225</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0</v>
+        <v>0.74559408840835439</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.82776898766884321</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.97221262956888943</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>0</v>
+        <v>0.99322242435766928</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.79041348128841138</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject18.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject18.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.73427049495400021</v>
+        <v>0.74517412566490038</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0.50862923070037025</v>
+        <v>0.79160062094723305</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0.98469305646169958</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.76494042135471418</v>
+        <v>0.97221262956888943</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
         <v>0.72870219841411332</v>
       </c>
       <c r="D2" s="0">
-        <v>0.57698843837307001</v>
+        <v>0.74716357614557327</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.609960276391458</v>
+        <v>0.72870219841411332</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.92390923191374907</v>
+        <v>0.92425409223929522</v>
       </c>
       <c r="E3" s="0">
         <v>0.63084609122173374</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>0.94396367845617235</v>
+        <v>0.94799492440595556</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>0.53931529036411652</v>
+        <v>0.57255281313751039</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0.91098352316657905</v>
+        <v>0.93514329700205234</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.56187588321362791</v>
+        <v>0.63084609122173374</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.53538647999659017</v>
       </c>
       <c r="G5" s="0">
-        <v>0.78239221632703582</v>
+        <v>0.79921329165262267</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.51794845996844274</v>
+        <v>0.53538647999659017</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.93282693817278539</v>
       </c>
       <c r="H6" s="0">
-        <v>0.68131754260917243</v>
+        <v>0.91252567426253206</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0.79921329165262267</v>
       </c>
       <c r="F7" s="0">
-        <v>0.60184625011851689</v>
+        <v>0.93282693817278539</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.59413534269142709</v>
+        <v>0.73217341061473529</v>
       </c>
       <c r="I7" s="0">
-        <v>0.72671676647813288</v>
+        <v>0.87094597167919496</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.83582507104614245</v>
+        <v>0.84936904706899274</v>
       </c>
       <c r="J8" s="0">
         <v>0.97487634826343084</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.75631677757545368</v>
+        <v>0.76025383630080479</v>
       </c>
       <c r="K9" s="0">
         <v>0.98188132259466476</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.64280851612891943</v>
+        <v>0.97487634826343084</v>
       </c>
       <c r="I10" s="0">
         <v>0.76025383630080479</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.56290871652337005</v>
+        <v>0.65670297376128672</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.80402369932856899</v>
+        <v>0.98188132259466476</v>
       </c>
       <c r="J11" s="0">
         <v>0.65670297376128672</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0.57227438415271237</v>
+        <v>0.71898207233683165</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.77578211554282483</v>
+        <v>0.94566785698247202</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.51457649315515119</v>
+        <v>0.58732532014825378</v>
       </c>
       <c r="N12" s="0">
         <v>0.8688105738038423</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.7067725571050083</v>
+        <v>0.71891953368444139</v>
       </c>
       <c r="L13" s="0">
         <v>0.58732532014825378</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.53553434498353125</v>
+        <v>0.82692955199694174</v>
       </c>
       <c r="O13" s="0">
         <v>0.92807088170427365</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.84523027256904326</v>
+        <v>0.8688105738038423</v>
       </c>
       <c r="M14" s="0">
         <v>0.82692955199694174</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.51837204394436531</v>
+        <v>0.93687401715473295</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.53105935609040567</v>
+        <v>0.92807088170427365</v>
       </c>
       <c r="N15" s="0">
         <v>0.93687401715473295</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.67227214539205726</v>
+        <v>0.69270593488628207</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.67240179987206417</v>
+        <v>0.80930887408196006</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.89806033270371877</v>
+        <v>0.95150161638224418</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.78823017274576601</v>
+        <v>0.99384327106431369</v>
       </c>
       <c r="S17" s="0">
-        <v>0.58404805013715833</v>
+        <v>0.71270844549094248</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AY17" s="0">
-        <v>0.61240814314171788</v>
+        <v>0.82335502307592068</v>
       </c>
       <c r="AZ17" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.5832898909187767</v>
+        <v>0.8595457389399801</v>
       </c>
       <c r="T18" s="0">
-        <v>0.76298049601768714</v>
+        <v>0.88347395092729264</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.55958189907054456</v>
+        <v>0.95539301603857463</v>
       </c>
       <c r="U19" s="0">
         <v>0.69002542564971014</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>0.62180525285316524</v>
+        <v>0.78250470388061499</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.69369858368416459</v>
       </c>
       <c r="V20" s="0">
-        <v>0.65352212220782668</v>
+        <v>0.65988182486516056</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.50871961827156875</v>
+        <v>0.69002542564971014</v>
       </c>
       <c r="T21" s="0">
-        <v>0.5387659422073473</v>
+        <v>0.69369858368416459</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.51128693407842141</v>
+        <v>0.52343940509220843</v>
       </c>
       <c r="W21" s="0">
         <v>0.98550151236661765</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.62135057918533099</v>
+        <v>0.89374318835386224</v>
       </c>
       <c r="X22" s="0">
-        <v>0.55751483983435857</v>
+        <v>0.88627742863540782</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.76595634417371872</v>
+        <v>0.98550151236661765</v>
       </c>
       <c r="V23" s="0">
         <v>0.89374318835386224</v>
@@ -4932,13 +4932,13 @@
         <v>0.88627742863540782</v>
       </c>
       <c r="W24" s="0">
-        <v>0.59137931374376129</v>
+        <v>0.68192754763818386</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.95680168688033596</v>
+        <v>0.97730900351194838</v>
       </c>
       <c r="Z24" s="0">
         <v>0.91053410419586778</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0.78466810551550581</v>
+        <v>0.95801600518019825</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.80030716129516888</v>
+        <v>0.91053410419586778</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.66102227828395732</v>
+        <v>0.89971256572979241</v>
       </c>
       <c r="AB26" s="0">
         <v>0.90180320552274007</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0.63376664051112153</v>
+        <v>0.96912307430330713</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.72481470006526005</v>
+        <v>0.86714673150906763</v>
       </c>
       <c r="Z27" s="0">
         <v>0.89971256572979241</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.54164094062457924</v>
+        <v>0.96443877478645534</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.71875354176679718</v>
+        <v>0.97358053060800998</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.59680441519287331</v>
+        <v>0.90180320552274007</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>0.87850891155666755</v>
+        <v>0.9031587534093809</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0.67741179069569046</v>
+        <v>0.77829050708493719</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0.81255792454177067</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.52754452158590626</v>
+        <v>0.94219154141480765</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.53007817313063854</v>
+        <v>0.81255792454177067</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0.94219154141480765</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.67508417272798971</v>
+        <v>0.79137349895058395</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.53778072598898041</v>
+        <v>0.68692741503324439</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.75482713986391659</v>
+        <v>0.84149216230192347</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.65820840508176581</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.65136745057137513</v>
+        <v>0.92874719741339984</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.69005451420759956</v>
+        <v>0.99745486318955168</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.65536956865120866</v>
+        <v>0.65820840508176581</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0.75899752259478281</v>
+        <v>0.85176019577501239</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0.92874719741339984</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.60533518442812695</v>
+        <v>0.93750851071182795</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.69650093636509625</v>
+        <v>0.77194640960916061</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.78396321785564327</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.54165256160904751</v>
+        <v>0.63677442954276287</v>
       </c>
       <c r="AH35" s="0">
         <v>0.77194640960916061</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0.7804296522821188</v>
+        <v>0.86603053967031574</v>
       </c>
       <c r="BD35" s="0">
         <v>0.79490331411098225</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>0.83216822657632505</v>
+        <v>0.83640828589163496</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.77500610483881127</v>
+        <v>0.78396321785564327</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.67001802807317157</v>
+        <v>0.99334746584120248</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.60851943396744335</v>
+        <v>0.75396857715357368</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.50659289358768489</v>
+        <v>0.70287738644150877</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.92042311054179171</v>
+        <v>0.93908838142989293</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.54607107558921797</v>
+        <v>0.63449561341506222</v>
       </c>
       <c r="AN38" s="0">
         <v>0.87730412158299187</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.79926066264379991</v>
+        <v>0.85795240272433204</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>0.7350825781859941</v>
+        <v>0.80610484700144158</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>0.74382372923056761</v>
+        <v>0.74721651277647294</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0.57904357271017393</v>
+        <v>0.89837551467614318</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.64920071690811421</v>
+        <v>0.87730412158299187</v>
       </c>
       <c r="AM40" s="0">
         <v>0.85795240272433204</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>0.58425382917278812</v>
+        <v>0.99322242435766928</v>
       </c>
     </row>
     <row r="41">
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.79014079556403161</v>
+        <v>0.84459447355042105</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.71637236129732473</v>
+        <v>0.87136196409275457</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>0.59422985964284747</v>
+        <v>0.82652363276552221</v>
       </c>
       <c r="BJ41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.62372594776694767</v>
+        <v>0.82423825245610427</v>
       </c>
       <c r="AO42" s="0">
         <v>0.84459447355042105</v>
@@ -8903,7 +8903,7 @@
         <v>0.87136196409275457</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.50644350329279475</v>
+        <v>0.88791917267465081</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0.88233850034164862</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.93059752137909468</v>
+        <v>0.94201335176855261</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>0.55077764398455409</v>
+        <v>0.8264292644891269</v>
       </c>
       <c r="O44" s="0">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.7883651007846304</v>
+        <v>0.9532599638059096</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.83641023435307638</v>
+        <v>0.88233850034164862</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0.94201335176855261</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.85855878371971661</v>
+        <v>0.88610129112793912</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="BI45" s="0">
-        <v>0.51881730299216822</v>
+        <v>0.71007278660716922</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.88740913474306438</v>
+        <v>0.92228649470742063</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>0.5981325588961276</v>
+        <v>0.92035654689419188</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.63769158435777729</v>
+        <v>0.85777643651276403</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0.53974217017607051</v>
+        <v>0.61785391721022664</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.66461727046497598</v>
+        <v>0.99332466812749454</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.56428560672923023</v>
+        <v>0.77567595148481172</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0.80610484700144158</v>
       </c>
       <c r="AN50" s="0">
-        <v>0.85052912849834073</v>
+        <v>0.9203811415235037</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.66611136672238414</v>
+        <v>0.87340439630317346</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.86215381309808259</v>
+        <v>0.91142260697652144</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.52758912357031784</v>
+        <v>0.69084962362201208</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.5234661097609199</v>
+        <v>0.63724802155530647</v>
       </c>
       <c r="BB52" s="0">
         <v>0.9122543244043736</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="0">
-        <v>0.5893955990793629</v>
+        <v>0.93533114568726261</v>
       </c>
       <c r="AL53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.5575574843924469</v>
+        <v>0.71042236050172014</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.60339548737108495</v>
+        <v>0.73628807520570128</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.82684292201300602</v>
+        <v>0.9122543244043736</v>
       </c>
       <c r="BA54" s="0">
         <v>0.71042236050172014</v>
@@ -11211,7 +11211,7 @@
         <v>0.91477844054020774</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.53407344549302005</v>
+        <v>0.73157400780060522</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0.73628807520570128</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.6830214135710686</v>
+        <v>0.91477844054020774</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>0.70335141210469443</v>
+        <v>0.79490331411098225</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0.73157400780060522</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.89473376813224692</v>
+        <v>0.89979532315643196</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0.67076904906460233</v>
+        <v>0.99660686793270004</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.60328706549047184</v>
+        <v>0.68524592568726361</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.53461570318069751</v>
+        <v>0.78408790701891884</v>
       </c>
       <c r="BE58" s="0">
         <v>0.68524592568726361</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.54936088521056425</v>
+        <v>0.7965663843501718</v>
       </c>
       <c r="BH58" s="0">
         <v>0.93981412743043113</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.59679431800341742</v>
+        <v>0.85578402072154147</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.56947336155381212</v>
+        <v>0.93322542721061241</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.7555615084326468</v>
+        <v>0.93981412743043113</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0.69011446084763073</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.6771425721953106</v>
+        <v>0.74545247893996902</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12665,13 +12665,13 @@
         <v>0.93322542721061241</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.59944180725585827</v>
+        <v>0.69011446084763073</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.60506430586257998</v>
+        <v>0.79328688385711033</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.87936274469525877</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.58698324072257768</v>
+        <v>0.69249601109449221</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.6396964632604365</v>
+        <v>0.87936274469525877</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0.62122487049200492</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.70897850294344344</v>
+        <v>0.8869152518407869</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13286,19 +13286,19 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0.61356233673244265</v>
+        <v>0.83797133269064172</v>
       </c>
       <c r="BJ64" s="0">
         <v>0.69249601109449221</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.55311578982325815</v>
+        <v>0.62122487049200492</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.77622809648721258</v>
+        <v>0.80115490405244572</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.5271272576349616</v>
+        <v>0.87156483942753504</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13716,15 +13716,15 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.61263808743835846</v>
+        <v>0.82776898766884321</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.71504083559805698</v>
+        <v>0.79041348128841138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.83307256090806103</v>
+        <v>0.98469305646169958</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>0.64989448037632225</v>
+        <v>0.92603853951418924</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0.74559408840835439</v>
+        <v>0.86755982046729796</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
